--- a/Design/Excel/B2DCollisionRelationConfig.xlsx
+++ b/Design/Excel/B2DCollisionRelationConfig.xlsx
@@ -7,21 +7,48 @@
     <workbookView windowWidth="28128" windowHeight="12660"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>Id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>#备注</t>
   </si>
   <si>
+    <t>B2S_ColliderConfigId</t>
+  </si>
+  <si>
+    <t>B2S_ColliderHandlerName</t>
+  </si>
+  <si>
+    <t>FriendlyHero</t>
+  </si>
+  <si>
+    <t>FriendlySoldier</t>
+  </si>
+  <si>
+    <t>EnemyHero</t>
+  </si>
+  <si>
+    <t>EnemySoldier</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>对应碰撞数据配置Id</t>
   </si>
   <si>
@@ -31,52 +58,19 @@
     <t>友方英雄碰撞</t>
   </si>
   <si>
+    <t>右方小兵碰撞</t>
+  </si>
+  <si>
     <t>敌方英雄碰撞</t>
   </si>
   <si>
     <t>敌方小兵碰撞</t>
   </si>
   <si>
-    <t>B2S_ColliderConfigId</t>
-  </si>
-  <si>
-    <t>B2S_ColliderHandlerName</t>
-  </si>
-  <si>
-    <t>FriendlyHero</t>
-  </si>
-  <si>
-    <t>EnemyHero</t>
-  </si>
-  <si>
-    <t>EnemySoldier</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>德莱厄斯Q技能碰撞</t>
   </si>
   <si>
     <t>Darius_Q_CollisionHandler</t>
-  </si>
-  <si>
-    <t>德莱厄斯E技能碰撞</t>
-  </si>
-  <si>
-    <t>Darius_E_CollisionHandler</t>
-  </si>
-  <si>
-    <t>德莱厄斯R技能碰撞</t>
-  </si>
-  <si>
-    <t>Darius_R_CollisionHandler</t>
   </si>
 </sst>
 </file>
@@ -90,7 +84,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +104,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -572,48 +559,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,101 +613,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -727,9 +714,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1080,26 +1064,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.2685185185185" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.0925925925926" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.6296296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.3611111111111" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.2685185185185" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.0925925925926" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="29.6296296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.0925925925926" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1121,115 +1105,81 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>10001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>10001</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10002</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7">
-        <v>10003</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="H4" s="6" t="b">
         <v>1</v>
       </c>
     </row>
